--- a/docs/Servers.xlsx
+++ b/docs/Servers.xlsx
@@ -228,15 +228,6 @@
     <t>flexsys1/flexapp1</t>
   </si>
   <si>
-    <t>quant/root</t>
-  </si>
-  <si>
-    <t>Kepler4ever!/Kepler4quant!</t>
-  </si>
-  <si>
-    <t>Kepler4ever/Kepler4ever</t>
-  </si>
-  <si>
     <t>50Go</t>
   </si>
   <si>
@@ -295,6 +286,15 @@
   </si>
   <si>
     <t>Virtual</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>Kepler4ever!</t>
+  </si>
+  <si>
+    <t>Kepler4ever</t>
   </si>
 </sst>
 </file>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +864,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>37</v>
@@ -916,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>38</v>
@@ -945,10 +945,10 @@
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="7"/>
@@ -960,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>39</v>
@@ -989,10 +989,10 @@
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
@@ -1004,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
@@ -1033,10 +1033,10 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>39</v>
@@ -1077,10 +1077,10 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
@@ -1089,10 +1089,10 @@
       <c r="A7" s="21"/>
       <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>39</v>
@@ -1121,10 +1121,10 @@
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
@@ -1133,10 +1133,10 @@
       <c r="A8" s="21"/>
       <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>39</v>
@@ -1165,10 +1165,10 @@
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
@@ -1189,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>40</v>
@@ -1218,10 +1218,10 @@
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="7"/>
@@ -1233,7 +1233,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>41</v>
@@ -1262,10 +1262,10 @@
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="15"/>
@@ -1283,7 +1283,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -1312,7 +1312,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -1325,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>41</v>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -1383,7 +1383,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>41</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
@@ -1425,7 +1425,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>41</v>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
@@ -1472,7 +1472,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>41</v>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -1514,7 +1514,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>41</v>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
@@ -1561,10 +1561,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>52</v>
@@ -1573,10 +1573,10 @@
         <v>50</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
@@ -1603,22 +1603,22 @@
         <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -1645,7 +1645,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>45</v>
@@ -1657,10 +1657,10 @@
         <v>54</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -1687,10 +1687,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>18</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -1729,7 +1729,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>51</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
@@ -1767,17 +1767,17 @@
     <row r="28" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="K32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Servers.xlsx
+++ b/docs/Servers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="92">
   <si>
     <t>DEV</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Ram</t>
   </si>
   <si>
-    <t>Weak</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -267,27 +264,15 @@
     <t>Pysical</t>
   </si>
   <si>
-    <t>Pb Reseau pr eclipse</t>
-  </si>
-  <si>
     <t>Jenkins + Mongo DB</t>
   </si>
   <si>
     <t>Git Flex + Git Prod</t>
   </si>
   <si>
-    <t>mod wsgi sur Web pour django</t>
-  </si>
-  <si>
-    <t>reference 31 pour les machines de dev</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Virtual</t>
-  </si>
-  <si>
     <t>quant</t>
   </si>
   <si>
@@ -295,6 +280,18 @@
   </si>
   <si>
     <t>Kepler4ever</t>
+  </si>
+  <si>
+    <t>Xeon 2.93Ghz 4 Core</t>
+  </si>
+  <si>
+    <t>Xeon 3.7Ghz Bi processor 2*6 Core</t>
+  </si>
+  <si>
+    <t>12Go</t>
+  </si>
+  <si>
+    <t>4Go</t>
   </si>
 </sst>
 </file>
@@ -834,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R32"/>
+  <dimension ref="A2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N37" sqref="B30:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,8 +852,8 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -864,7 +861,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>37</v>
@@ -876,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>67</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18" t="s">
@@ -916,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>38</v>
@@ -928,30 +925,34 @@
         <v>4</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>58</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
@@ -960,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>39</v>
@@ -972,30 +973,34 @@
         <v>5</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>58</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
@@ -1004,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>39</v>
@@ -1016,30 +1021,34 @@
         <v>7</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>58</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
@@ -1048,7 +1057,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>39</v>
@@ -1060,39 +1069,43 @@
         <v>8</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="23"/>
       <c r="C7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>39</v>
@@ -1104,39 +1117,43 @@
         <v>18</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="23"/>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>39</v>
@@ -1148,30 +1165,34 @@
         <v>18</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>58</v>
       </c>
       <c r="N8" s="14"/>
       <c r="O8" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
@@ -1189,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>40</v>
@@ -1201,30 +1222,34 @@
         <v>6</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
@@ -1233,7 +1258,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>41</v>
@@ -1245,30 +1270,34 @@
         <v>18</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
@@ -1283,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>40</v>
@@ -1295,28 +1324,32 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>58</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7"/>
+      <c r="Q13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
@@ -1325,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>41</v>
@@ -1337,28 +1370,32 @@
         <v>18</v>
       </c>
       <c r="H14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="Q14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1383,7 +1420,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>41</v>
@@ -1395,28 +1432,32 @@
         <v>25</v>
       </c>
       <c r="H17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7"/>
+      <c r="Q17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
@@ -1425,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>41</v>
@@ -1437,28 +1478,32 @@
         <v>26</v>
       </c>
       <c r="H18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="Q18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
@@ -1472,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>41</v>
@@ -1484,28 +1529,32 @@
         <v>18</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7"/>
+      <c r="Q20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20"/>
@@ -1514,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>41</v>
@@ -1526,28 +1575,32 @@
         <v>18</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="Q21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
@@ -1561,10 +1614,10 @@
         <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>52</v>
@@ -1573,28 +1626,32 @@
         <v>50</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="M23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="7"/>
+      <c r="Q23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
@@ -1603,10 +1660,10 @@
         <v>43</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>18</v>
@@ -1615,28 +1672,32 @@
         <v>18</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="11"/>
+      <c r="R24" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
@@ -1645,7 +1706,7 @@
         <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>45</v>
@@ -1657,28 +1718,32 @@
         <v>54</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11"/>
+      <c r="R25" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -1687,10 +1752,10 @@
         <v>47</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>18</v>
@@ -1706,21 +1771,25 @@
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>58</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11"/>
+      <c r="R26" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
@@ -1729,7 +1798,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>51</v>
@@ -1748,37 +1817,29 @@
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="15"/>
+      <c r="R27" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K32" t="s">
-        <v>87</v>
-      </c>
+      <c r="E30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1792,6 +1853,7 @@
     <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Servers.xlsx
+++ b/docs/Servers.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="13860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CURRENT" sheetId="2" r:id="rId1"/>
+    <sheet name="OLD25102013" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="155">
   <si>
     <t>DEV</t>
   </si>
@@ -295,13 +295,199 @@
   </si>
   <si>
     <t>Kepler4ever</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>User01</t>
+  </si>
+  <si>
+    <t>User02</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>USAGE</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>DD1</t>
+  </si>
+  <si>
+    <t>DD2</t>
+  </si>
+  <si>
+    <t>DD TYPE</t>
+  </si>
+  <si>
+    <t>CPU TYPE</t>
+  </si>
+  <si>
+    <t>CPUs</t>
+  </si>
+  <si>
+    <t>MEMORY</t>
+  </si>
+  <si>
+    <t>172.29.0.51</t>
+  </si>
+  <si>
+    <t>PARALG01</t>
+  </si>
+  <si>
+    <t>FLEXTRADE</t>
+  </si>
+  <si>
+    <t>REDHAT 5.7</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>INTEL  XEON X5550 @ 2.67GHz</t>
+  </si>
+  <si>
+    <t>172.29.0.52</t>
+  </si>
+  <si>
+    <t>PARALG02</t>
+  </si>
+  <si>
+    <t>172.29.0.53</t>
+  </si>
+  <si>
+    <t>PARALG03</t>
+  </si>
+  <si>
+    <t>172.29.0.54</t>
+  </si>
+  <si>
+    <t>PARALG04</t>
+  </si>
+  <si>
+    <t>172.29.0.55</t>
+  </si>
+  <si>
+    <t>PARALG05</t>
+  </si>
+  <si>
+    <t>172.29.0.56</t>
+  </si>
+  <si>
+    <t>PARALG06</t>
+  </si>
+  <si>
+    <t>172.29.0.57</t>
+  </si>
+  <si>
+    <t>PARALG07</t>
+  </si>
+  <si>
+    <t>172.29.0.58</t>
+  </si>
+  <si>
+    <t>PARALG08</t>
+  </si>
+  <si>
+    <t>172.29.0.59</t>
+  </si>
+  <si>
+    <t>PARALG09</t>
+  </si>
+  <si>
+    <t>172.29.0.60</t>
+  </si>
+  <si>
+    <t>PARALG10</t>
+  </si>
+  <si>
+    <t>172.29.0.61</t>
+  </si>
+  <si>
+    <t>PARALG11</t>
+  </si>
+  <si>
+    <t>INTEL  XEON X5570  @ 2.93GHz</t>
+  </si>
+  <si>
+    <t>172.29.0.62</t>
+  </si>
+  <si>
+    <t>PARALG12</t>
+  </si>
+  <si>
+    <t>flexapp/flexapp1</t>
+  </si>
+  <si>
+    <t>flexsys/flexsys1</t>
+  </si>
+  <si>
+    <t>Algo front end</t>
+  </si>
+  <si>
+    <t>Algo server</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>HPP Front end</t>
+  </si>
+  <si>
+    <t>HPP Algo server</t>
+  </si>
+  <si>
+    <t>Failover Front end</t>
+  </si>
+  <si>
+    <t>Failover Algo server</t>
+  </si>
+  <si>
+    <t>Laurent</t>
+  </si>
+  <si>
+    <t>Unused</t>
+  </si>
+  <si>
+    <t>mongo</t>
+  </si>
+  <si>
+    <t>ALLOCATION</t>
+  </si>
+  <si>
+    <t>based on PARALG01</t>
+  </si>
+  <si>
+    <t>based on PARALG02</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>in progress…</t>
+  </si>
+  <si>
+    <t>FAILOVER</t>
+  </si>
+  <si>
+    <t>STAGING</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +530,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +574,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -471,11 +681,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -526,6 +825,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,10 +1193,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="29">
+        <v>72</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" s="29">
+        <v>8</v>
+      </c>
+      <c r="P4" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="29">
+        <v>72</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" s="29">
+        <v>8</v>
+      </c>
+      <c r="P5" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="29">
+        <v>72</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" s="29">
+        <v>8</v>
+      </c>
+      <c r="P6" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="29">
+        <v>72</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O7" s="29">
+        <v>8</v>
+      </c>
+      <c r="P7" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="29">
+        <v>72</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O8" s="29">
+        <v>8</v>
+      </c>
+      <c r="P8" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="29">
+        <v>72</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" s="29">
+        <v>8</v>
+      </c>
+      <c r="P9" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="29">
+        <v>72</v>
+      </c>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="29">
+        <v>8</v>
+      </c>
+      <c r="P10" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="29">
+        <v>72</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" s="29">
+        <v>8</v>
+      </c>
+      <c r="P11" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="29">
+        <v>72</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="29">
+        <v>8</v>
+      </c>
+      <c r="P12" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="29">
+        <v>72</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" s="29">
+        <v>8</v>
+      </c>
+      <c r="P13" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="29">
+        <v>146</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" s="29">
+        <v>8</v>
+      </c>
+      <c r="P14" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="29">
+        <v>146</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" s="29">
+        <v>8</v>
+      </c>
+      <c r="P15" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="45"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B16:P16"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A5:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,18 +3032,7 @@
     <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Servers.xlsx
+++ b/docs/Servers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="163">
   <si>
     <t>DEV</t>
   </si>
@@ -342,6 +342,12 @@
     <t>PARALG01</t>
   </si>
   <si>
+    <t>flexsys/flexsys</t>
+  </si>
+  <si>
+    <t>flexapp/flexapp</t>
+  </si>
+  <si>
     <t>FLEXTRADE</t>
   </si>
   <si>
@@ -481,6 +487,24 @@
   </si>
   <si>
     <t>SERVICE</t>
+  </si>
+  <si>
+    <t>Failover Deployer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.29.105.31 </t>
+  </si>
+  <si>
+    <t>WATFLT03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.29.100.31 </t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>based on WATFLT03</t>
   </si>
 </sst>
 </file>
@@ -774,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -827,6 +851,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -887,6 +914,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1196,870 +1224,918 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="18.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="30">
+        <v>72</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="30">
+        <v>8</v>
+      </c>
+      <c r="P4" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="30">
+        <v>72</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="30">
+        <v>8</v>
+      </c>
+      <c r="P5" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="30">
+        <v>72</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O6" s="30">
+        <v>8</v>
+      </c>
+      <c r="P6" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" s="30">
+        <v>72</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="30">
+        <v>8</v>
+      </c>
+      <c r="P7" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="30">
+        <v>72</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="30">
+        <v>8</v>
+      </c>
+      <c r="P8" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="30">
+        <v>72</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="30">
+        <v>8</v>
+      </c>
+      <c r="P9" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="30">
+        <v>72</v>
+      </c>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" s="30">
+        <v>8</v>
+      </c>
+      <c r="P10" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="30">
+        <v>72</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="30">
+        <v>8</v>
+      </c>
+      <c r="P11" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="E12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="H12" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="30">
+        <v>72</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="30">
+        <v>8</v>
+      </c>
+      <c r="P12" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="30">
+        <v>72</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="30">
+        <v>8</v>
+      </c>
+      <c r="P13" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="30">
+        <v>146</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" s="30">
+        <v>8</v>
+      </c>
+      <c r="P14" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="F15" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="30">
+        <v>146</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" s="30">
+        <v>8</v>
+      </c>
+      <c r="P15" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="46"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="G19" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="29">
-        <v>72</v>
-      </c>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28" t="s">
+      <c r="H19" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="J19" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="29">
-        <v>8</v>
-      </c>
-      <c r="P4" s="29">
+      <c r="K19" s="30">
+        <v>300</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="27" t="s">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="30">
+        <v>300</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="29">
-        <v>72</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" s="29">
-        <v>8</v>
-      </c>
-      <c r="P5" s="29">
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="29">
-        <v>72</v>
-      </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O6" s="29">
-        <v>8</v>
-      </c>
-      <c r="P6" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="29">
-        <v>72</v>
-      </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="29">
-        <v>8</v>
-      </c>
-      <c r="P7" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="29">
-        <v>72</v>
-      </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O8" s="29">
-        <v>8</v>
-      </c>
-      <c r="P8" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="29">
-        <v>72</v>
-      </c>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="29">
-        <v>8</v>
-      </c>
-      <c r="P9" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="29">
-        <v>72</v>
-      </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" s="29">
-        <v>8</v>
-      </c>
-      <c r="P10" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="29">
-        <v>72</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="29">
-        <v>8</v>
-      </c>
-      <c r="P11" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="29">
-        <v>72</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="29">
-        <v>8</v>
-      </c>
-      <c r="P12" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="29">
-        <v>72</v>
-      </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N13" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="O13" s="29">
-        <v>8</v>
-      </c>
-      <c r="P13" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="29">
-        <v>146</v>
-      </c>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O14" s="29">
-        <v>8</v>
-      </c>
-      <c r="P14" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="29">
-        <v>146</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="O15" s="29">
-        <v>8</v>
-      </c>
-      <c r="P15" s="29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-    </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/docs/Servers.xlsx
+++ b/docs/Servers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="176">
   <si>
     <t>DEV</t>
   </si>
@@ -477,9 +477,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>in progress…</t>
-  </si>
-  <si>
     <t>FAILOVER</t>
   </si>
   <si>
@@ -505,13 +502,55 @@
   </si>
   <si>
     <t>based on WATFLT03</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>http://172.29.105.31:9999</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>WATFLT02</t>
+  </si>
+  <si>
+    <t>LUIFLT02</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>flexsys@172.29.105.30:/home/central/st_sim</t>
+  </si>
+  <si>
+    <t>Gitosis + Git</t>
+  </si>
+  <si>
+    <t>Jenkins + mongo</t>
+  </si>
+  <si>
+    <t>luiflt03</t>
+  </si>
+  <si>
+    <t>quant/Kepler4ever!</t>
+  </si>
+  <si>
+    <t>http://172.29.100.143:8080/</t>
+  </si>
+  <si>
+    <t>1T</t>
+  </si>
+  <si>
+    <t>quant/Kepler4ever</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +589,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -795,10 +842,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -855,31 +903,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -899,24 +947,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1221,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,70 +1289,74 @@
     <col min="1" max="1" width="18.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="25"/>
+    <col min="6" max="6" width="42.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
         <v>93</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="48" t="s">
         <v>149</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>94</v>
       </c>
       <c r="F2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="I2" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
         <v>0</v>
       </c>
@@ -1312,9 +1373,10 @@
       <c r="M3" s="33"/>
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>139</v>
       </c>
@@ -1322,7 +1384,7 @@
         <v>106</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>146</v>
@@ -1330,39 +1392,40 @@
       <c r="E4" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="I4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="30">
+      <c r="L4" s="30">
         <v>72</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="O4" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="30">
+      <c r="P4" s="30">
         <v>8</v>
       </c>
-      <c r="P4" s="30">
+      <c r="Q4" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>140</v>
       </c>
@@ -1376,39 +1439,40 @@
       <c r="E5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="I5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K5" s="30">
+      <c r="L5" s="30">
         <v>72</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="29"/>
+      <c r="N5" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O5" s="30">
+      <c r="P5" s="30">
         <v>8</v>
       </c>
-      <c r="P5" s="30">
+      <c r="Q5" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="28" t="s">
         <v>116</v>
@@ -1420,39 +1484,40 @@
       <c r="E6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="H6" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="I6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="J6" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="K6" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K6" s="30">
+      <c r="L6" s="30">
         <v>72</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O6" s="30">
+      <c r="P6" s="30">
         <v>8</v>
       </c>
-      <c r="P6" s="30">
+      <c r="Q6" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="28" t="s">
         <v>118</v>
@@ -1464,39 +1529,40 @@
       <c r="E7" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="31" t="s">
+      <c r="I7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="K7" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="30">
+      <c r="L7" s="30">
         <v>72</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="O7" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O7" s="30">
+      <c r="P7" s="30">
         <v>8</v>
       </c>
-      <c r="P7" s="30">
+      <c r="Q7" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="28" t="s">
         <v>120</v>
@@ -1508,39 +1574,40 @@
       <c r="E8" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="H8" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="I8" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="30">
+      <c r="L8" s="30">
         <v>72</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="29"/>
+      <c r="N8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="O8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="30">
+      <c r="P8" s="30">
         <v>8</v>
       </c>
-      <c r="P8" s="30">
+      <c r="Q8" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="28" t="s">
         <v>122</v>
@@ -1552,39 +1619,40 @@
       <c r="E9" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="H9" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="I9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="J9" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="K9" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="30">
+      <c r="L9" s="30">
         <v>72</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="29"/>
+      <c r="N9" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="O9" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="30">
+      <c r="P9" s="30">
         <v>8</v>
       </c>
-      <c r="P9" s="30">
+      <c r="Q9" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="28" t="s">
         <v>124</v>
@@ -1596,39 +1664,40 @@
       <c r="E10" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="29"/>
+      <c r="G10" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="I10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="J10" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="K10" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="30">
+      <c r="L10" s="30">
         <v>72</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="29"/>
+      <c r="N10" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="O10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="30">
+      <c r="P10" s="30">
         <v>8</v>
       </c>
-      <c r="P10" s="30">
+      <c r="Q10" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>141</v>
       </c>
@@ -1636,45 +1705,46 @@
         <v>126</v>
       </c>
       <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
-        <v>148</v>
+      <c r="D11" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="K11" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="30">
+      <c r="L11" s="30">
         <v>72</v>
       </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="29"/>
+      <c r="N11" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="O11" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="30">
+      <c r="P11" s="30">
         <v>8</v>
       </c>
-      <c r="P11" s="30">
+      <c r="Q11" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>144</v>
       </c>
@@ -1682,45 +1752,46 @@
         <v>128</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="31" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="H12" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="K12" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="30">
+      <c r="L12" s="30">
         <v>72</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="29"/>
+      <c r="N12" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="O12" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O12" s="30">
+      <c r="P12" s="30">
         <v>8</v>
       </c>
-      <c r="P12" s="30">
+      <c r="Q12" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>145</v>
       </c>
@@ -1728,45 +1799,46 @@
         <v>130</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="31" t="s">
         <v>151</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="H13" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="K13" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K13" s="30">
+      <c r="L13" s="30">
         <v>72</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29" t="s">
+      <c r="M13" s="29"/>
+      <c r="N13" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="O13" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="30">
+      <c r="P13" s="30">
         <v>8</v>
       </c>
-      <c r="P13" s="30">
+      <c r="Q13" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>142</v>
       </c>
@@ -1774,43 +1846,44 @@
         <v>132</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="29"/>
+      <c r="G14" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="H14" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="K14" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K14" s="30">
+      <c r="L14" s="30">
         <v>146</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29" t="s">
+      <c r="M14" s="29"/>
+      <c r="N14" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="29" t="s">
+      <c r="O14" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="30">
+      <c r="P14" s="30">
         <v>8</v>
       </c>
-      <c r="P14" s="30">
+      <c r="Q14" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>143</v>
       </c>
@@ -1818,333 +1891,471 @@
         <v>135</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="H15" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="I15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="30">
+        <v>146</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="J16" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="30">
-        <v>146</v>
-      </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="30">
-        <v>8</v>
-      </c>
-      <c r="P15" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
+      <c r="K16" s="29"/>
+      <c r="L16" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="28"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="46"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="C18" s="29"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="29"/>
+      <c r="E18" s="49" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="29"/>
+      <c r="G18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="30"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
+      <c r="O18" s="29"/>
       <c r="P18" s="30"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="30">
-        <v>300</v>
-      </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="B20" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>160</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E20" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" s="30">
+        <v>300</v>
+      </c>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F21" s="49"/>
+      <c r="G21" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="H21" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="29" t="s">
+      <c r="I21" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="K21" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K20" s="30">
+      <c r="L21" s="30">
         <v>300</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29" t="s">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30">
+      <c r="O21" s="29"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>144</v>
+      </c>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="49" t="s">
+        <v>165</v>
+      </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
+      <c r="G22" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="30"/>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="30"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>144</v>
+      </c>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="49" t="s">
+        <v>166</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="29"/>
+      <c r="G23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" s="30"/>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="30"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="28"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="29"/>
+      <c r="D24" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="30"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="28"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
+      <c r="G25" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="31"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="30"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="Q26" s="30"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="30"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="31"/>
       <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B16:P16"/>
-    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B3:Q3"/>
     <mergeCell ref="A5:A10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1" display="http://172.29.105.31:9999/"/>
+    <hyperlink ref="F24" r:id="rId2"/>
+    <hyperlink ref="F16" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2152,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Servers.xlsx
+++ b/docs/Servers.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="177">
   <si>
     <t>DEV</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>quant/Kepler4ever</t>
+  </si>
+  <si>
+    <t>database</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,6 +974,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1281,7 +1296,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,7 +1305,7 @@
     <col min="2" max="2" width="13.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="25" bestFit="1" customWidth="1"/>
@@ -1316,7 +1331,7 @@
       <c r="D2" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="55" t="s">
         <v>94</v>
       </c>
       <c r="F2" s="27" t="s">
@@ -1389,7 +1404,7 @@
       <c r="D4" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="56" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="29"/>
@@ -1436,7 +1451,7 @@
       <c r="D5" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="56" t="s">
         <v>115</v>
       </c>
       <c r="F5" s="29"/>
@@ -1481,7 +1496,7 @@
       <c r="D6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="56" t="s">
         <v>117</v>
       </c>
       <c r="F6" s="29"/>
@@ -1526,7 +1541,7 @@
       <c r="D7" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="56" t="s">
         <v>119</v>
       </c>
       <c r="F7" s="29"/>
@@ -1571,7 +1586,7 @@
       <c r="D8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="56" t="s">
         <v>121</v>
       </c>
       <c r="F8" s="29"/>
@@ -1616,7 +1631,7 @@
       <c r="D9" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="56" t="s">
         <v>123</v>
       </c>
       <c r="F9" s="29"/>
@@ -1661,7 +1676,7 @@
       <c r="D10" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="56" t="s">
         <v>125</v>
       </c>
       <c r="F10" s="29"/>
@@ -1708,7 +1723,7 @@
       <c r="D11" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="56" t="s">
         <v>127</v>
       </c>
       <c r="F11" s="29"/>
@@ -1755,7 +1770,7 @@
       <c r="D12" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="56" t="s">
         <v>129</v>
       </c>
       <c r="F12" s="29"/>
@@ -1802,7 +1817,7 @@
       <c r="D13" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="56" t="s">
         <v>131</v>
       </c>
       <c r="F13" s="29"/>
@@ -1847,7 +1862,7 @@
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="56" t="s">
         <v>133</v>
       </c>
       <c r="F14" s="29"/>
@@ -1892,7 +1907,7 @@
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="56" t="s">
         <v>136</v>
       </c>
       <c r="F15" s="29"/>
@@ -1941,7 +1956,7 @@
       <c r="D16" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="56" t="s">
         <v>171</v>
       </c>
       <c r="F16" s="53" t="s">
@@ -1996,7 +2011,7 @@
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="57" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="29"/>
@@ -2031,7 +2046,7 @@
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="31"/>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="57" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="29"/>
@@ -2068,7 +2083,7 @@
       <c r="D20" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="57" t="s">
         <v>158</v>
       </c>
       <c r="F20" s="50" t="s">
@@ -2113,7 +2128,7 @@
       <c r="D21" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="57" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="49"/>
@@ -2152,7 +2167,7 @@
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="57" t="s">
         <v>165</v>
       </c>
       <c r="F22" s="29"/>
@@ -2185,7 +2200,7 @@
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
       <c r="D23" s="31"/>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="57" t="s">
         <v>166</v>
       </c>
       <c r="F23" s="29"/>
@@ -2222,7 +2237,7 @@
       <c r="D24" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="E24" s="49"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="51" t="s">
         <v>168</v>
       </c>
@@ -2241,7 +2256,9 @@
       <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
+      <c r="A25" s="38" t="s">
+        <v>176</v>
+      </c>
       <c r="B25" s="28" t="s">
         <v>54</v>
       </c>
@@ -2249,7 +2266,7 @@
       <c r="D25" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="56" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="29"/>
@@ -2272,7 +2289,7 @@
       <c r="B26" s="28"/>
       <c r="C26" s="29"/>
       <c r="D26" s="31"/>
-      <c r="E26" s="29"/>
+      <c r="E26" s="56"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -2291,7 +2308,7 @@
       <c r="B27" s="28"/>
       <c r="C27" s="29"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="56"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -2310,7 +2327,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -2329,7 +2346,7 @@
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
